--- a/2023-11-28_glasgow-acf.xlsx
+++ b/2023-11-28_glasgow-acf.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/petermacpherson/Dropbox/Projects/Historical TB ACF 2023-11-28/Work/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/petermacpherson/Dropbox/Projects/Historical TB ACF 2023-11-28/Work/analysis/glasgow-cxr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABE0B6E4-7757-6647-9454-87166C006421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BDBCB56-0D26-EE44-A580-65098757825C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="100" yWindow="500" windowWidth="22880" windowHeight="17500" firstSheet="42" activeTab="47" xr2:uid="{417E8CF0-1891-9B4A-A85E-3D48908E08F2}"/>
+    <workbookView xWindow="100" yWindow="500" windowWidth="22240" windowHeight="28300" firstSheet="45" activeTab="49" xr2:uid="{417E8CF0-1891-9B4A-A85E-3D48908E08F2}"/>
   </bookViews>
   <sheets>
     <sheet name="divisions_wards" sheetId="13" r:id="rId1"/>
@@ -61,6 +61,9 @@
     <sheet name="death_rate_1962" sheetId="48" r:id="rId46"/>
     <sheet name="death_rate_1963" sheetId="49" r:id="rId47"/>
     <sheet name="overall_deaths" sheetId="50" r:id="rId48"/>
+    <sheet name="condemed_housing_overall" sheetId="53" r:id="rId49"/>
+    <sheet name="condemed_housing_division" sheetId="51" r:id="rId50"/>
+    <sheet name="housing_numbers" sheetId="52" r:id="rId51"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -83,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11453" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11537" uniqueCount="105">
   <si>
     <t>year</t>
   </si>
@@ -371,6 +374,33 @@
   </si>
   <si>
     <t>pulmonary_death_rate_per_100k</t>
+  </si>
+  <si>
+    <t>houses_condemed</t>
+  </si>
+  <si>
+    <t>apt_1</t>
+  </si>
+  <si>
+    <t>apt_2</t>
+  </si>
+  <si>
+    <t>apt_3</t>
+  </si>
+  <si>
+    <t>apt_4</t>
+  </si>
+  <si>
+    <t>apt_5</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>slum_clearances</t>
+  </si>
+  <si>
+    <t>housing_committee_grand_totalcondemed</t>
   </si>
 </sst>
 </file>
@@ -760,7 +790,7 @@
   <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+      <selection activeCell="A2" sqref="A2:A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -73125,7 +73155,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4D5F1D3-5813-C640-A1D0-C6FF835508C0}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
@@ -73295,6 +73325,136 @@
       </c>
       <c r="C15">
         <v>20.8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B913B2C-0B75-B244-A6B2-9EFE0049C8C9}">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1950</v>
+      </c>
+      <c r="B2">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1951</v>
+      </c>
+      <c r="B3">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1956</v>
+      </c>
+      <c r="B8">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1957</v>
+      </c>
+      <c r="B9">
+        <v>2044</v>
+      </c>
+      <c r="C9">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1958</v>
+      </c>
+      <c r="B10">
+        <v>2389</v>
+      </c>
+      <c r="C10">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1959</v>
+      </c>
+      <c r="B11">
+        <v>2125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1960</v>
+      </c>
+      <c r="B12">
+        <v>2583</v>
+      </c>
+      <c r="C12">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>1963</v>
       </c>
     </row>
   </sheetData>
@@ -73532,6 +73692,1078 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D9051CE-BC10-9E47-AF1B-44323DD89162}">
+  <dimension ref="A1:C71"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C67" sqref="C67"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1950</v>
+      </c>
+      <c r="B2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1950</v>
+      </c>
+      <c r="B3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1950</v>
+      </c>
+      <c r="B4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1950</v>
+      </c>
+      <c r="B5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1950</v>
+      </c>
+      <c r="B6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1951</v>
+      </c>
+      <c r="B7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1951</v>
+      </c>
+      <c r="B8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1951</v>
+      </c>
+      <c r="B9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1951</v>
+      </c>
+      <c r="B10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1951</v>
+      </c>
+      <c r="B11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1952</v>
+      </c>
+      <c r="B12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1952</v>
+      </c>
+      <c r="B13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1952</v>
+      </c>
+      <c r="B14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>1952</v>
+      </c>
+      <c r="B15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>1952</v>
+      </c>
+      <c r="B16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>1953</v>
+      </c>
+      <c r="B17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>1953</v>
+      </c>
+      <c r="B18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>1953</v>
+      </c>
+      <c r="B19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>1953</v>
+      </c>
+      <c r="B20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>1953</v>
+      </c>
+      <c r="B21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>1954</v>
+      </c>
+      <c r="B22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>1954</v>
+      </c>
+      <c r="B23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>1954</v>
+      </c>
+      <c r="B24" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>1954</v>
+      </c>
+      <c r="B25" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>1954</v>
+      </c>
+      <c r="B26" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>1955</v>
+      </c>
+      <c r="B27" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>1955</v>
+      </c>
+      <c r="B28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>1955</v>
+      </c>
+      <c r="B29" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>1955</v>
+      </c>
+      <c r="B30" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>1955</v>
+      </c>
+      <c r="B31" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>1956</v>
+      </c>
+      <c r="B32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>1956</v>
+      </c>
+      <c r="B33" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>1956</v>
+      </c>
+      <c r="B34" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>1956</v>
+      </c>
+      <c r="B35" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>1956</v>
+      </c>
+      <c r="B36" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>1957</v>
+      </c>
+      <c r="B37" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>1957</v>
+      </c>
+      <c r="B38" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>1957</v>
+      </c>
+      <c r="B39" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>1957</v>
+      </c>
+      <c r="B40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>1957</v>
+      </c>
+      <c r="B41" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>1958</v>
+      </c>
+      <c r="B42" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>1958</v>
+      </c>
+      <c r="B43" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>1958</v>
+      </c>
+      <c r="B44" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>1958</v>
+      </c>
+      <c r="B45" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>1958</v>
+      </c>
+      <c r="B46" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>1959</v>
+      </c>
+      <c r="B47" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>1959</v>
+      </c>
+      <c r="B48" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>1959</v>
+      </c>
+      <c r="B49" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>1959</v>
+      </c>
+      <c r="B50" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>1959</v>
+      </c>
+      <c r="B51" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>1960</v>
+      </c>
+      <c r="B52" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>1960</v>
+      </c>
+      <c r="B53" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>1960</v>
+      </c>
+      <c r="B54" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>1960</v>
+      </c>
+      <c r="B55" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>1960</v>
+      </c>
+      <c r="B56" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>1961</v>
+      </c>
+      <c r="B57" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>1961</v>
+      </c>
+      <c r="B58" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>1961</v>
+      </c>
+      <c r="B59" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>1961</v>
+      </c>
+      <c r="B60" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>1961</v>
+      </c>
+      <c r="B61" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>1962</v>
+      </c>
+      <c r="B62" t="s">
+        <v>63</v>
+      </c>
+      <c r="C62">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>1962</v>
+      </c>
+      <c r="B63" t="s">
+        <v>62</v>
+      </c>
+      <c r="C63">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>1962</v>
+      </c>
+      <c r="B64" t="s">
+        <v>61</v>
+      </c>
+      <c r="C64">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>1962</v>
+      </c>
+      <c r="B65" t="s">
+        <v>64</v>
+      </c>
+      <c r="C65">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>1962</v>
+      </c>
+      <c r="B66" t="s">
+        <v>65</v>
+      </c>
+      <c r="C66">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>1963</v>
+      </c>
+      <c r="B67" t="s">
+        <v>63</v>
+      </c>
+      <c r="C67">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>1963</v>
+      </c>
+      <c r="B68" t="s">
+        <v>62</v>
+      </c>
+      <c r="C68">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>1963</v>
+      </c>
+      <c r="B69" t="s">
+        <v>61</v>
+      </c>
+      <c r="C69">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>1963</v>
+      </c>
+      <c r="B70" t="s">
+        <v>64</v>
+      </c>
+      <c r="C70">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>1963</v>
+      </c>
+      <c r="B71" t="s">
+        <v>65</v>
+      </c>
+      <c r="C71">
+        <v>574</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A36E4D19-BE35-5540-957B-797151B4F0AC}">
+  <dimension ref="A1:S16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R31" sqref="R31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="6.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1950</v>
+      </c>
+      <c r="B2" s="6">
+        <v>8</v>
+      </c>
+      <c r="C2" s="6">
+        <v>1451</v>
+      </c>
+      <c r="D2" s="6">
+        <v>4739</v>
+      </c>
+      <c r="E2" s="6">
+        <v>1726</v>
+      </c>
+      <c r="F2" s="6">
+        <v>244</v>
+      </c>
+      <c r="G2" s="6">
+        <v>34</v>
+      </c>
+      <c r="H2" s="6">
+        <v>8194</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1950</v>
+      </c>
+      <c r="B3" s="6">
+        <v>9</v>
+      </c>
+      <c r="C3" s="6">
+        <v>635</v>
+      </c>
+      <c r="D3" s="6">
+        <v>2290</v>
+      </c>
+      <c r="E3" s="6">
+        <v>2145</v>
+      </c>
+      <c r="F3" s="6">
+        <v>2206</v>
+      </c>
+      <c r="G3" s="6">
+        <v>327</v>
+      </c>
+      <c r="H3" s="6">
+        <v>7603</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1950</v>
+      </c>
+      <c r="B4" s="6">
+        <v>10</v>
+      </c>
+      <c r="C4" s="6">
+        <v>1438</v>
+      </c>
+      <c r="D4" s="6">
+        <v>5244</v>
+      </c>
+      <c r="E4" s="6">
+        <v>2387</v>
+      </c>
+      <c r="F4" s="6">
+        <v>633</v>
+      </c>
+      <c r="G4" s="6">
+        <v>127</v>
+      </c>
+      <c r="H4" s="6">
+        <v>9829</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1950</v>
+      </c>
+      <c r="B5" s="6">
+        <v>14</v>
+      </c>
+      <c r="C5" s="6">
+        <v>1477</v>
+      </c>
+      <c r="D5" s="6">
+        <v>4554</v>
+      </c>
+      <c r="E5" s="6">
+        <v>1406</v>
+      </c>
+      <c r="F5" s="6">
+        <v>175</v>
+      </c>
+      <c r="G5" s="6">
+        <v>127</v>
+      </c>
+      <c r="H5" s="6">
+        <v>7671</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1950</v>
+      </c>
+      <c r="B6" s="6">
+        <v>15</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1905</v>
+      </c>
+      <c r="D6" s="6">
+        <v>4408</v>
+      </c>
+      <c r="E6" s="6">
+        <v>1206</v>
+      </c>
+      <c r="F6" s="6">
+        <v>399</v>
+      </c>
+      <c r="G6" s="6">
+        <v>59</v>
+      </c>
+      <c r="H6" s="6">
+        <v>8209</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1950</v>
+      </c>
+      <c r="B7" s="6">
+        <v>16</v>
+      </c>
+      <c r="C7" s="6">
+        <v>574</v>
+      </c>
+      <c r="D7" s="6">
+        <v>2731</v>
+      </c>
+      <c r="E7" s="6">
+        <v>5131</v>
+      </c>
+      <c r="F7" s="6">
+        <v>1840</v>
+      </c>
+      <c r="G7" s="6">
+        <v>227</v>
+      </c>
+      <c r="H7" s="6">
+        <v>10503</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1950</v>
+      </c>
+      <c r="B8" s="6">
+        <v>17</v>
+      </c>
+      <c r="C8" s="6">
+        <v>1341</v>
+      </c>
+      <c r="D8" s="6">
+        <v>4082</v>
+      </c>
+      <c r="E8" s="6">
+        <v>1910</v>
+      </c>
+      <c r="F8" s="6">
+        <v>549</v>
+      </c>
+      <c r="G8" s="6">
+        <v>586</v>
+      </c>
+      <c r="H8" s="6">
+        <v>8468</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1950</v>
+      </c>
+      <c r="B9" s="6">
+        <v>18</v>
+      </c>
+      <c r="C9" s="6">
+        <v>650</v>
+      </c>
+      <c r="D9" s="6">
+        <v>3372</v>
+      </c>
+      <c r="E9" s="6">
+        <v>2198</v>
+      </c>
+      <c r="F9" s="6">
+        <v>580</v>
+      </c>
+      <c r="G9" s="6">
+        <v>200</v>
+      </c>
+      <c r="H9" s="6">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1950</v>
+      </c>
+      <c r="B10" s="6">
+        <v>27</v>
+      </c>
+      <c r="C10" s="6">
+        <v>1221</v>
+      </c>
+      <c r="D10" s="6">
+        <v>3389</v>
+      </c>
+      <c r="E10" s="6">
+        <v>2147</v>
+      </c>
+      <c r="F10" s="6">
+        <v>544</v>
+      </c>
+      <c r="G10" s="6">
+        <v>128</v>
+      </c>
+      <c r="H10" s="6">
+        <v>7409</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1950</v>
+      </c>
+      <c r="B11" s="6">
+        <v>28</v>
+      </c>
+      <c r="C11" s="6">
+        <v>11030</v>
+      </c>
+      <c r="D11" s="6">
+        <v>4324</v>
+      </c>
+      <c r="E11" s="6">
+        <v>19904</v>
+      </c>
+      <c r="F11" s="6">
+        <v>593</v>
+      </c>
+      <c r="G11" s="6">
+        <v>372</v>
+      </c>
+      <c r="H11" s="6">
+        <v>8223</v>
+      </c>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1950</v>
+      </c>
+      <c r="B12" s="6">
+        <v>29</v>
+      </c>
+      <c r="C12" s="6">
+        <v>1265</v>
+      </c>
+      <c r="D12" s="6">
+        <v>4885</v>
+      </c>
+      <c r="E12" s="6">
+        <v>2082</v>
+      </c>
+      <c r="F12" s="6">
+        <v>789</v>
+      </c>
+      <c r="G12" s="6">
+        <v>196</v>
+      </c>
+      <c r="H12" s="6">
+        <v>9217</v>
+      </c>
+      <c r="O12" s="8"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1950</v>
+      </c>
+      <c r="B13" s="6">
+        <v>30</v>
+      </c>
+      <c r="C13" s="6">
+        <v>629</v>
+      </c>
+      <c r="D13" s="6">
+        <v>3125</v>
+      </c>
+      <c r="E13" s="6">
+        <v>2019</v>
+      </c>
+      <c r="F13" s="6">
+        <v>791</v>
+      </c>
+      <c r="G13" s="6">
+        <v>170</v>
+      </c>
+      <c r="H13" s="6">
+        <v>6734</v>
+      </c>
+      <c r="N13" s="8"/>
+      <c r="S13" s="8"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1950</v>
+      </c>
+      <c r="B14" s="6">
+        <v>31</v>
+      </c>
+      <c r="C14" s="6">
+        <v>28</v>
+      </c>
+      <c r="D14" s="6">
+        <v>153</v>
+      </c>
+      <c r="E14" s="6">
+        <v>3490</v>
+      </c>
+      <c r="F14" s="6">
+        <v>5313</v>
+      </c>
+      <c r="G14" s="6">
+        <v>1658</v>
+      </c>
+      <c r="H14" s="6">
+        <v>10642</v>
+      </c>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="S14" s="8"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>1950</v>
+      </c>
+      <c r="B15" s="6">
+        <v>32</v>
+      </c>
+      <c r="C15" s="6">
+        <v>123</v>
+      </c>
+      <c r="D15" s="6">
+        <v>312</v>
+      </c>
+      <c r="E15" s="6">
+        <v>1275</v>
+      </c>
+      <c r="F15" s="6">
+        <v>3902</v>
+      </c>
+      <c r="G15" s="6">
+        <v>2428</v>
+      </c>
+      <c r="H15" s="6">
+        <v>8040</v>
+      </c>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="S15" s="8"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="S16" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F310D040-D5BA-A147-9548-90CEC7752D4E}">
   <dimension ref="A1:E33"/>
